--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -218,9 +218,6 @@
     <t>$resumenJugador=</t>
   </si>
   <si>
-    <t>¿Para qué se utiliza?:  almacena la partida de un jugador</t>
-  </si>
-  <si>
     <t>"partidas"</t>
   </si>
   <si>
@@ -245,12 +242,6 @@
     <t>"intento6"</t>
   </si>
   <si>
-    <t>"maria"</t>
-  </si>
-  <si>
-    <t>"mauricio"</t>
-  </si>
-  <si>
     <t>"F"</t>
   </si>
   <si>
@@ -267,6 +258,12 @@
   </si>
   <si>
     <t>"N"</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?:  almacena los valores de cada partida que realizo un jugador</t>
+  </si>
+  <si>
+    <t>Tipo: Asociativo</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,6 +516,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,147 +1121,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4171950" y="12331700"/>
-          <a:ext cx="0" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Conector recto de flecha 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2247900" y="14922500"/>
-          <a:ext cx="0" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Conector recto de flecha 20"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="14916150"/>
-          <a:ext cx="0" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector recto de flecha 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4203700" y="14909800"/>
           <a:ext cx="0" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1580,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1835,10 +1692,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>32</v>
@@ -1881,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>21</v>
@@ -1921,10 +1778,10 @@
         <v>21</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="17"/>
@@ -1962,7 +1819,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>24</v>
@@ -2010,7 +1867,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" s="22"/>
     </row>
@@ -2288,204 +2145,169 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="7">
-        <v>0</v>
-      </c>
-      <c r="C68" s="7">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="22"/>
+      <c r="B69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1">
+        <v>22</v>
+      </c>
+      <c r="E69" s="26">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1">
         <v>1</v>
       </c>
-      <c r="D68" s="7">
-        <v>2</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="22"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>6</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7</v>
+      </c>
+      <c r="J69" s="1">
+        <v>8</v>
+      </c>
+      <c r="K69" s="1">
+        <v>9</v>
+      </c>
+      <c r="L69" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="31"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="9" t="s">
+      <c r="B70" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
+      <c r="C70" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="1">
-        <v>10</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="1">
-        <v>22</v>
-      </c>
-      <c r="C73" s="1">
-        <v>12</v>
-      </c>
-      <c r="D73" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="9" t="s">
+      <c r="F70" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="1">
-        <v>3</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="9" t="s">
+      <c r="G70" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1">
-        <v>6</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="9" t="s">
+      <c r="H70" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="1">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="9" t="s">
+      <c r="I70" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="1">
-        <v>6</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="9" t="s">
+      <c r="J70" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="1">
-        <v>7</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="9" t="s">
+      <c r="K70" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="1">
-        <v>8</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="1">
+      <c r="L70" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="31"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="31"/>
+      <c r="B72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="31"/>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="31"/>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="31"/>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="31"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="31"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="31"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="31"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="31"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>11</v>
-      </c>
+      <c r="A81" s="24"/>
+      <c r="B81" s="33"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>60</v>
-      </c>
+      <c r="B83" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="31"/>
